--- a/tables/1981/1981_Table2.xlsx
+++ b/tables/1981/1981_Table2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="data"/>
@@ -98,7 +98,7 @@
     <t>S.E.</t>
   </si>
   <si>
-    <t>LSD</t>
+    <t>LSD(0.05)</t>
   </si>
 </sst>
 </file>
@@ -106,7 +106,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +117,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -148,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -156,25 +162,28 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -490,25 +499,25 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="11" width="11.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -541,579 +550,579 @@
       <c r="O1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>21.6</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>12.1</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <v>34.8</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="9">
         <v>28.9</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <v>7.5</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <v>3.5</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="9">
         <v>2.1</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="10">
         <v>2</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="9">
         <v>1.1</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="9">
         <v>1.4</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="9">
         <v>1.3</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="10">
         <v>3</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="10">
         <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>19.6</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>9.3</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>31.3</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="9">
         <v>34.5</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="9">
         <v>6.1</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <v>3.2</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="10">
         <v>2</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="10">
         <v>2</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="9">
         <v>1.1</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="9">
         <v>1.1</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="9">
         <v>2.4</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="10">
         <v>4</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="10">
         <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>19.2</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="8">
+      <c r="C5" s="7"/>
+      <c r="D5" s="9">
         <v>27.3</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="8">
+      <c r="F5" s="9">
         <v>5.2</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="8">
+      <c r="H5" s="9">
         <v>1.8</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="9">
+      <c r="J5" s="10">
         <v>1</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="8">
+      <c r="L5" s="9">
         <v>1.9</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="10">
         <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="10">
         <v>19</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>9.6</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>27.5</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="9">
         <v>33.1</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="9">
         <v>5.2</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <v>3.2</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="10">
         <v>2</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="10">
         <v>2</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="9">
         <v>1.1</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="9">
         <v>1.3</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="9">
         <v>2.3</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="9">
         <v>4.3</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="10">
         <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>17.2</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="8">
+      <c r="C7" s="7"/>
+      <c r="D7" s="9">
         <v>29.1</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>5</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="8">
+      <c r="H7" s="9">
         <v>1.9</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="8">
+      <c r="J7" s="9">
         <v>1.1</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="8">
+      <c r="L7" s="9">
         <v>3.3</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="10">
         <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="10">
         <v>17</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="8">
+      <c r="C8" s="7"/>
+      <c r="D8" s="9">
         <v>26.2</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="8">
+      <c r="F8" s="9">
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="8">
+      <c r="H8" s="9">
         <v>2.5</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="8">
+      <c r="J8" s="9">
         <v>1.8</v>
       </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="8">
+      <c r="L8" s="9">
         <v>2.3</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="10">
         <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>15.3</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="8">
+      <c r="C9" s="7"/>
+      <c r="D9" s="9">
         <v>29.4</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="8">
+      <c r="F9" s="9">
         <v>4.5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="8">
+      <c r="H9" s="9">
         <v>2.3</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="8">
+      <c r="J9" s="9">
         <v>1.6</v>
       </c>
       <c r="K9" s="7"/>
-      <c r="L9" s="8">
+      <c r="L9" s="9">
         <v>2.5</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="10">
         <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>60506</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>14.9</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>2.7</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="9">
         <v>26.7</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <v>31.2</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>4</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="9">
         <v>0.8</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="9">
         <v>2.8</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="9">
         <v>2.6</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="10">
         <v>2</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="9">
         <v>2.1</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="10">
         <v>3</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="10">
         <v>4</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="10">
         <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>14.2</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <v>6.4</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <v>29.2</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="9">
         <v>32.9</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="9">
         <v>4.1</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="9">
         <v>2.1</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="9">
         <v>2.3</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="10">
         <v>2</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="9">
         <v>1.3</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="9">
         <v>1.4</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="9">
         <v>1.5</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="9">
         <v>2.5</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="10">
         <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>12.9</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <v>10.9</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="9">
         <v>20.6</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="9">
         <v>25.4</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="9">
         <v>2.7</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="9">
         <v>2.8</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="9">
         <v>2.6</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="9">
         <v>2.1</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="9">
         <v>1.6</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="9">
         <v>1.8</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="9">
         <v>2.9</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="9">
         <v>4.3</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="10">
         <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>10.1</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="9">
         <v>5.7</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
         <v>27.3</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="9">
         <v>34.2</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="9">
         <v>2.8</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="9">
         <v>1.9</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="9">
         <v>2.5</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="10">
         <v>2</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="9">
         <v>1.8</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="9">
         <v>1.3</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="9">
         <v>2.4</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="10">
         <v>4</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="10">
         <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <v>60444</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="10">
         <v>7</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>0.7</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="9">
         <v>22.7</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="9">
         <v>26.3</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="9">
         <v>1.6</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="9">
         <v>0.2</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="10">
         <v>3</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="10">
         <v>3</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="9">
         <v>2.5</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="9">
         <v>2.8</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="9">
         <v>2.6</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="9">
         <v>3.7</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="10">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="9">
         <v>1.3</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1127,18 +1136,16 @@
       <c r="O15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="8">
-        <v>-0.05</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="B16" s="9">
         <v>1.3</v>
       </c>
-      <c r="D16" s="8">
+      <c r="C16" s="9">
         <v>3.9</v>
       </c>
+      <c r="D16" s="9"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1171,14 +1178,14 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
